--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf13</t>
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H2">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I2">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J2">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N2">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q2">
-        <v>6.126062824323936</v>
+        <v>13.31483073936267</v>
       </c>
       <c r="R2">
-        <v>6.126062824323936</v>
+        <v>119.833476654264</v>
       </c>
       <c r="S2">
-        <v>0.002631404315052689</v>
+        <v>0.004756846760847642</v>
       </c>
       <c r="T2">
-        <v>0.002631404315052689</v>
+        <v>0.00475684676084764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H3">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I3">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J3">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N3">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q3">
-        <v>17.63595780361395</v>
+        <v>27.166455699392</v>
       </c>
       <c r="R3">
-        <v>17.63595780361395</v>
+        <v>244.498101294528</v>
       </c>
       <c r="S3">
-        <v>0.007575393330974914</v>
+        <v>0.009705468235156056</v>
       </c>
       <c r="T3">
-        <v>0.007575393330974914</v>
+        <v>0.009705468235156054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H4">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I4">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J4">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N4">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q4">
-        <v>13.66309402286821</v>
+        <v>24.99490768184533</v>
       </c>
       <c r="R4">
-        <v>13.66309402286821</v>
+        <v>224.954169136608</v>
       </c>
       <c r="S4">
-        <v>0.005868879507077818</v>
+        <v>0.00892966256736381</v>
       </c>
       <c r="T4">
-        <v>0.005868879507077818</v>
+        <v>0.008929662567363807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H5">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I5">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J5">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N5">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q5">
-        <v>16.75770953839585</v>
+        <v>27.33842085496</v>
       </c>
       <c r="R5">
-        <v>16.75770953839585</v>
+        <v>246.04578769464</v>
       </c>
       <c r="S5">
-        <v>0.007198148379191795</v>
+        <v>0.009766904381754902</v>
       </c>
       <c r="T5">
-        <v>0.007198148379191795</v>
+        <v>0.0097669043817549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H6">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I6">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J6">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N6">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q6">
-        <v>39.01042883194127</v>
+        <v>61.51796261018134</v>
       </c>
       <c r="R6">
-        <v>39.01042883194127</v>
+        <v>553.661663491632</v>
       </c>
       <c r="S6">
-        <v>0.01675663696311417</v>
+        <v>0.02197786264838351</v>
       </c>
       <c r="T6">
-        <v>0.01675663696311417</v>
+        <v>0.02197786264838351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H7">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I7">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J7">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N7">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q7">
-        <v>5.373580761837458</v>
+        <v>8.498161237552003</v>
       </c>
       <c r="R7">
-        <v>5.373580761837458</v>
+        <v>76.483451137968</v>
       </c>
       <c r="S7">
-        <v>0.002308181291879533</v>
+        <v>0.003036046912448036</v>
       </c>
       <c r="T7">
-        <v>0.002308181291879533</v>
+        <v>0.003036046912448035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H8">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I8">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J8">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N8">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O8">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P8">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q8">
-        <v>71.80552461737962</v>
+        <v>2.984561234229</v>
       </c>
       <c r="R8">
-        <v>71.80552461737962</v>
+        <v>26.86105110806101</v>
       </c>
       <c r="S8">
-        <v>0.03084352425713933</v>
+        <v>0.001066262179182101</v>
       </c>
       <c r="T8">
-        <v>0.03084352425713933</v>
+        <v>0.0010662621791821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H9">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I9">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J9">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N9">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O9">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P9">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q9">
-        <v>206.7166528541476</v>
+        <v>6.089446583208</v>
       </c>
       <c r="R9">
-        <v>206.7166528541476</v>
+        <v>54.805019248872</v>
       </c>
       <c r="S9">
-        <v>0.08879358699258567</v>
+        <v>0.002175511264221616</v>
       </c>
       <c r="T9">
-        <v>0.08879358699258567</v>
+        <v>0.002175511264221616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H10">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I10">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J10">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N10">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O10">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P10">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q10">
-        <v>160.149456893124</v>
+        <v>5.602687257587999</v>
       </c>
       <c r="R10">
-        <v>160.149456893124</v>
+        <v>50.424185318292</v>
       </c>
       <c r="S10">
-        <v>0.06879099741658594</v>
+        <v>0.002001611981030374</v>
       </c>
       <c r="T10">
-        <v>0.06879099741658594</v>
+        <v>0.002001611981030374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H11">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I11">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J11">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N11">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O11">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P11">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q11">
-        <v>196.4224264910269</v>
+        <v>6.12799311429</v>
       </c>
       <c r="R11">
-        <v>196.4224264910269</v>
+        <v>55.15193802861</v>
       </c>
       <c r="S11">
-        <v>0.08437177930813146</v>
+        <v>0.002189282369923865</v>
       </c>
       <c r="T11">
-        <v>0.08437177930813146</v>
+        <v>0.002189282369923865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H12">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I12">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J12">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N12">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O12">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P12">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q12">
-        <v>457.2536045017832</v>
+        <v>13.789445018802</v>
       </c>
       <c r="R12">
-        <v>457.2536045017832</v>
+        <v>124.105005169218</v>
       </c>
       <c r="S12">
-        <v>0.1964098544960929</v>
+        <v>0.004926407113659988</v>
       </c>
       <c r="T12">
-        <v>0.1964098544960929</v>
+        <v>0.004926407113659988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H13">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I13">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J13">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N13">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O13">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P13">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q13">
-        <v>62.98544379034822</v>
+        <v>1.904889599298</v>
       </c>
       <c r="R13">
-        <v>62.98544379034822</v>
+        <v>17.144006393682</v>
       </c>
       <c r="S13">
-        <v>0.02705492472544497</v>
+        <v>0.0006805394749334067</v>
       </c>
       <c r="T13">
-        <v>0.02705492472544497</v>
+        <v>0.0006805394749334066</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H14">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I14">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J14">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N14">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O14">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P14">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q14">
-        <v>49.74908091034613</v>
+        <v>110.1513604167008</v>
       </c>
       <c r="R14">
-        <v>49.74908091034613</v>
+        <v>991.3622437503071</v>
       </c>
       <c r="S14">
-        <v>0.02136934437851397</v>
+        <v>0.03935259503165302</v>
       </c>
       <c r="T14">
-        <v>0.02136934437851397</v>
+        <v>0.03935259503165302</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H15">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I15">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J15">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N15">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O15">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P15">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q15">
-        <v>143.2196692824916</v>
+        <v>224.7435293444293</v>
       </c>
       <c r="R15">
-        <v>143.2196692824916</v>
+        <v>2022.691764099864</v>
       </c>
       <c r="S15">
-        <v>0.06151893419277139</v>
+        <v>0.08029171008708505</v>
       </c>
       <c r="T15">
-        <v>0.06151893419277139</v>
+        <v>0.08029171008708505</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H16">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I16">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J16">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N16">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O16">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P16">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q16">
-        <v>110.9564804543693</v>
+        <v>206.7786769910449</v>
       </c>
       <c r="R16">
-        <v>110.9564804543693</v>
+        <v>1861.008092919404</v>
       </c>
       <c r="S16">
-        <v>0.04766052354073078</v>
+        <v>0.07387359998121122</v>
       </c>
       <c r="T16">
-        <v>0.04766052354073078</v>
+        <v>0.07387359998121121</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H17">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I17">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J17">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N17">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O17">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P17">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q17">
-        <v>136.0875119314073</v>
+        <v>226.1661682198967</v>
       </c>
       <c r="R17">
-        <v>136.0875119314073</v>
+        <v>2035.49551397907</v>
       </c>
       <c r="S17">
-        <v>0.05845536952367265</v>
+        <v>0.08079996101862837</v>
       </c>
       <c r="T17">
-        <v>0.05845536952367265</v>
+        <v>0.08079996101862837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H18">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I18">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J18">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N18">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O18">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P18">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q18">
-        <v>316.7993923604142</v>
+        <v>508.9277816759962</v>
       </c>
       <c r="R18">
-        <v>316.7993923604142</v>
+        <v>4580.350035083966</v>
       </c>
       <c r="S18">
-        <v>0.1360788016657765</v>
+        <v>0.1818191697032956</v>
       </c>
       <c r="T18">
-        <v>0.1360788016657765</v>
+        <v>0.1818191697032956</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.73589627117423</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H19">
-        <v>2.73589627117423</v>
+        <v>12.766039</v>
       </c>
       <c r="I19">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J19">
-        <v>0.3438274591381959</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N19">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O19">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P19">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q19">
-        <v>43.63825702822977</v>
+        <v>70.30386188759267</v>
       </c>
       <c r="R19">
-        <v>43.63825702822977</v>
+        <v>632.7347569883341</v>
       </c>
       <c r="S19">
-        <v>0.01874448583673064</v>
+        <v>0.02511670664399921</v>
       </c>
       <c r="T19">
-        <v>0.01874448583673064</v>
+        <v>0.0251167066439992</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H20">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I20">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J20">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N20">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O20">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P20">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q20">
-        <v>17.0113263915996</v>
+        <v>71.45037713738178</v>
       </c>
       <c r="R20">
-        <v>17.0113263915996</v>
+        <v>643.053394236436</v>
       </c>
       <c r="S20">
-        <v>0.007307087595296562</v>
+        <v>0.02552630984955094</v>
       </c>
       <c r="T20">
-        <v>0.007307087595296562</v>
+        <v>0.02552630984955093</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H21">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I21">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J21">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N21">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O21">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P21">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q21">
-        <v>48.9728954842809</v>
+        <v>145.7813128235413</v>
       </c>
       <c r="R21">
-        <v>48.9728954842809</v>
+        <v>1312.031815411872</v>
       </c>
       <c r="S21">
-        <v>0.0210359397533901</v>
+        <v>0.05208172595440538</v>
       </c>
       <c r="T21">
-        <v>0.0210359397533901</v>
+        <v>0.05208172595440538</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H22">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I22">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J22">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N22">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O22">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P22">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q22">
-        <v>37.94073920026685</v>
+        <v>134.1282976359769</v>
       </c>
       <c r="R22">
-        <v>37.94073920026685</v>
+        <v>1207.154678723792</v>
       </c>
       <c r="S22">
-        <v>0.01629715980898202</v>
+        <v>0.04791857821079932</v>
       </c>
       <c r="T22">
-        <v>0.01629715980898202</v>
+        <v>0.04791857821079931</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H23">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I23">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J23">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N23">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O23">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P23">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q23">
-        <v>46.534107583974</v>
+        <v>146.7041165347067</v>
       </c>
       <c r="R23">
-        <v>46.534107583974</v>
+        <v>1320.33704881236</v>
       </c>
       <c r="S23">
-        <v>0.01998837671193955</v>
+        <v>0.05241140613812547</v>
       </c>
       <c r="T23">
-        <v>0.01998837671193955</v>
+        <v>0.05241140613812547</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.935519281780864</v>
+        <v>2.760257333333333</v>
       </c>
       <c r="H24">
-        <v>0.935519281780864</v>
+        <v>8.280771999999999</v>
       </c>
       <c r="I24">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="J24">
-        <v>0.117569229878533</v>
+        <v>0.3121682861462829</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N24">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O24">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P24">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q24">
-        <v>108.3271844522189</v>
+        <v>330.1192268427742</v>
       </c>
       <c r="R24">
-        <v>108.3271844522189</v>
+        <v>2971.073041584968</v>
       </c>
       <c r="S24">
-        <v>0.04653112917374226</v>
+        <v>0.1179381552525649</v>
       </c>
       <c r="T24">
-        <v>0.04653112917374226</v>
+        <v>0.1179381552525649</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.760257333333333</v>
+      </c>
+      <c r="H25">
+        <v>8.280771999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="J25">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.521302</v>
+      </c>
+      <c r="N25">
+        <v>49.563906</v>
+      </c>
+      <c r="O25">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="P25">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="Q25">
+        <v>45.60304500171467</v>
+      </c>
+      <c r="R25">
+        <v>410.427405015432</v>
+      </c>
+      <c r="S25">
+        <v>0.01629211074083688</v>
+      </c>
+      <c r="T25">
+        <v>0.01629211074083688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.07759</v>
+      </c>
+      <c r="H26">
+        <v>3.23277</v>
+      </c>
+      <c r="I26">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J26">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.88540433333334</v>
+      </c>
+      <c r="N26">
+        <v>77.65621300000001</v>
+      </c>
+      <c r="O26">
+        <v>0.08177099014340375</v>
+      </c>
+      <c r="P26">
+        <v>0.08177099014340374</v>
+      </c>
+      <c r="Q26">
+        <v>27.89385285555667</v>
+      </c>
+      <c r="R26">
+        <v>251.04467570001</v>
+      </c>
+      <c r="S26">
+        <v>0.009965337614938896</v>
+      </c>
+      <c r="T26">
+        <v>0.009965337614938894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.07759</v>
+      </c>
+      <c r="H27">
+        <v>3.23277</v>
+      </c>
+      <c r="I27">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J27">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>52.814392</v>
+      </c>
+      <c r="N27">
+        <v>158.443176</v>
+      </c>
+      <c r="O27">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="P27">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="Q27">
+        <v>56.91226067528</v>
+      </c>
+      <c r="R27">
+        <v>512.2103460775199</v>
+      </c>
+      <c r="S27">
+        <v>0.02033243291973539</v>
+      </c>
+      <c r="T27">
+        <v>0.02033243291973539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.07759</v>
+      </c>
+      <c r="H28">
+        <v>3.23277</v>
+      </c>
+      <c r="I28">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J28">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>48.59267866666666</v>
+      </c>
+      <c r="N28">
+        <v>145.778036</v>
+      </c>
+      <c r="O28">
+        <v>0.1535023906571488</v>
+      </c>
+      <c r="P28">
+        <v>0.1535023906571487</v>
+      </c>
+      <c r="Q28">
+        <v>52.36298460441333</v>
+      </c>
+      <c r="R28">
+        <v>471.2668614397199</v>
+      </c>
+      <c r="S28">
+        <v>0.0187071618542964</v>
+      </c>
+      <c r="T28">
+        <v>0.0187071618542964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.07759</v>
+      </c>
+      <c r="H29">
+        <v>3.23277</v>
+      </c>
+      <c r="I29">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J29">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>53.14871</v>
+      </c>
+      <c r="N29">
+        <v>159.44613</v>
+      </c>
+      <c r="O29">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="P29">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="Q29">
+        <v>57.27251840890001</v>
+      </c>
+      <c r="R29">
+        <v>515.4526656801</v>
+      </c>
+      <c r="S29">
+        <v>0.02046113833603291</v>
+      </c>
+      <c r="T29">
+        <v>0.02046113833603291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.07759</v>
+      </c>
+      <c r="H30">
+        <v>3.23277</v>
+      </c>
+      <c r="I30">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J30">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>119.5972646666667</v>
+      </c>
+      <c r="N30">
+        <v>358.791794</v>
+      </c>
+      <c r="O30">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="P30">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="Q30">
+        <v>128.8768164321533</v>
+      </c>
+      <c r="R30">
+        <v>1159.89134788938</v>
+      </c>
+      <c r="S30">
+        <v>0.0460424378494945</v>
+      </c>
+      <c r="T30">
+        <v>0.0460424378494945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.935519281780864</v>
-      </c>
-      <c r="H25">
-        <v>0.935519281780864</v>
-      </c>
-      <c r="I25">
-        <v>0.117569229878533</v>
-      </c>
-      <c r="J25">
-        <v>0.117569229878533</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.950260062126</v>
-      </c>
-      <c r="N25">
-        <v>15.950260062126</v>
-      </c>
-      <c r="O25">
-        <v>0.05451712868923769</v>
-      </c>
-      <c r="P25">
-        <v>0.05451712868923769</v>
-      </c>
-      <c r="Q25">
-        <v>14.92177583753811</v>
-      </c>
-      <c r="R25">
-        <v>14.92177583753811</v>
-      </c>
-      <c r="S25">
-        <v>0.006409536835182555</v>
-      </c>
-      <c r="T25">
-        <v>0.006409536835182555</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.07759</v>
+      </c>
+      <c r="H31">
+        <v>3.23277</v>
+      </c>
+      <c r="I31">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J31">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.521302</v>
+      </c>
+      <c r="N31">
+        <v>49.563906</v>
+      </c>
+      <c r="O31">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="P31">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="Q31">
+        <v>17.80318982218</v>
+      </c>
+      <c r="R31">
+        <v>160.22870839962</v>
+      </c>
+      <c r="S31">
+        <v>0.006360354667373436</v>
+      </c>
+      <c r="T31">
+        <v>0.006360354667373435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.358022</v>
+      </c>
+      <c r="I32">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J32">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>25.88540433333334</v>
+      </c>
+      <c r="N32">
+        <v>77.65621300000001</v>
+      </c>
+      <c r="O32">
+        <v>0.08177099014340375</v>
+      </c>
+      <c r="P32">
+        <v>0.08177099014340374</v>
+      </c>
+      <c r="Q32">
+        <v>3.089181410076223</v>
+      </c>
+      <c r="R32">
+        <v>27.802632690686</v>
+      </c>
+      <c r="S32">
+        <v>0.001103638707231153</v>
+      </c>
+      <c r="T32">
+        <v>0.001103638707231153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.358022</v>
+      </c>
+      <c r="I33">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J33">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>52.814392</v>
+      </c>
+      <c r="N33">
+        <v>158.443176</v>
+      </c>
+      <c r="O33">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="P33">
+        <v>0.1668386196347945</v>
+      </c>
+      <c r="Q33">
+        <v>6.302904750874666</v>
+      </c>
+      <c r="R33">
+        <v>56.726142757872</v>
+      </c>
+      <c r="S33">
+        <v>0.00225177117419102</v>
+      </c>
+      <c r="T33">
+        <v>0.00225177117419102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.358022</v>
+      </c>
+      <c r="I34">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J34">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>48.59267866666666</v>
+      </c>
+      <c r="N34">
+        <v>145.778036</v>
+      </c>
+      <c r="O34">
+        <v>0.1535023906571488</v>
+      </c>
+      <c r="P34">
+        <v>0.1535023906571487</v>
+      </c>
+      <c r="Q34">
+        <v>5.79908266719911</v>
+      </c>
+      <c r="R34">
+        <v>52.19174400479199</v>
+      </c>
+      <c r="S34">
+        <v>0.002071776062447655</v>
+      </c>
+      <c r="T34">
+        <v>0.002071776062447655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.358022</v>
+      </c>
+      <c r="I35">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J35">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>53.14871</v>
+      </c>
+      <c r="N35">
+        <v>159.44613</v>
+      </c>
+      <c r="O35">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="P35">
+        <v>0.1678947172537743</v>
+      </c>
+      <c r="Q35">
+        <v>6.342802483873333</v>
+      </c>
+      <c r="R35">
+        <v>57.08522235486001</v>
+      </c>
+      <c r="S35">
+        <v>0.002266025009308789</v>
+      </c>
+      <c r="T35">
+        <v>0.002266025009308789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.358022</v>
+      </c>
+      <c r="I36">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J36">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>119.5972646666667</v>
+      </c>
+      <c r="N36">
+        <v>358.791794</v>
+      </c>
+      <c r="O36">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="P36">
+        <v>0.3778031289100865</v>
+      </c>
+      <c r="Q36">
+        <v>14.27281729682978</v>
+      </c>
+      <c r="R36">
+        <v>128.455355671468</v>
+      </c>
+      <c r="S36">
+        <v>0.005099096342688072</v>
+      </c>
+      <c r="T36">
+        <v>0.005099096342688072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.358022</v>
+      </c>
+      <c r="I37">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J37">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.521302</v>
+      </c>
+      <c r="N37">
+        <v>49.563906</v>
+      </c>
+      <c r="O37">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="P37">
+        <v>0.05219015340079215</v>
+      </c>
+      <c r="Q37">
+        <v>1.971663194881333</v>
+      </c>
+      <c r="R37">
+        <v>17.744968753932</v>
+      </c>
+      <c r="S37">
+        <v>0.0007043949612011904</v>
+      </c>
+      <c r="T37">
+        <v>0.0007043949612011903</v>
       </c>
     </row>
   </sheetData>
